--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_GiaThanh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_GiaThanh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="33" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="85">
   <si>
     <t>STT</t>
   </si>
@@ -277,6 +277,21 @@
   </si>
   <si>
     <t>Restore thiết bị</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>LK, NCFW</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim +fw</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1067,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D6" sqref="D6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1267,7 +1282,9 @@
       <c r="B6" s="37">
         <v>44348</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44354</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>65</v>
       </c>
@@ -1282,15 +1299,29 @@
         <v>74</v>
       </c>
       <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="K6" s="61"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="L6" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>84</v>
+      </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>83</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
       <c r="U6" s="77" t="s">
@@ -1770,7 +1801,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -2047,7 +2078,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -2175,7 +2206,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2239,7 +2270,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2846,8 +2877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3062,7 +3093,9 @@
       <c r="B6" s="37">
         <v>44348</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44354</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>66</v>
       </c>
@@ -4657,8 +4690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4873,7 +4906,9 @@
       <c r="B6" s="37">
         <v>44348</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44354</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>44</v>
       </c>
@@ -4930,7 +4965,9 @@
       <c r="B7" s="37">
         <v>44348</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44354</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>44</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_GiaThanh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_GiaThanh.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="93">
   <si>
     <t>STT</t>
   </si>
@@ -292,6 +292,30 @@
   </si>
   <si>
     <t>Nâng cấp khay sim +fw</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180710</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15353</t>
+  </si>
+  <si>
+    <t>W.1.00.---01.170909</t>
+  </si>
+  <si>
+    <t>Thiết bị oxi hóa chân connector</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200622</t>
+  </si>
+  <si>
+    <t>Khởi tạo lại thiết bị, nâng cấp fw</t>
+  </si>
+  <si>
+    <t>SF, NCFW</t>
   </si>
 </sst>
 </file>
@@ -721,6 +745,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -733,31 +781,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1067,7 +1091,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:H6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1099,43 +1123,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -1180,58 +1204,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="89" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="81" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="81" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -1256,23 +1280,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="81"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1324,7 +1348,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1336,26 +1360,56 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
+      <c r="B7" s="37">
+        <v>44363</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44364</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="72">
+        <v>866192037819107</v>
+      </c>
       <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="G7" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>89</v>
+      </c>
       <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>83</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1384,7 +1438,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1413,7 +1467,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1442,7 +1496,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1471,7 +1525,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1500,7 +1554,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1531,7 +1585,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1560,7 +1614,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1589,7 +1643,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1618,7 +1672,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1801,7 +1855,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -2078,7 +2132,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -2206,7 +2260,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2270,7 +2324,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2849,6 +2903,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2860,13 +2921,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2877,8 +2931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2910,43 +2964,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -2991,58 +3045,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="89" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="81" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="81" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3067,23 +3121,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="81"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3137,7 +3191,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3149,26 +3203,54 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
+      <c r="B7" s="37">
+        <v>44363</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44364</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="39">
+        <v>861694030889909</v>
+      </c>
       <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="I7" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>89</v>
+      </c>
       <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>83</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3197,7 +3279,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3226,7 +3308,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3255,7 +3337,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3284,7 +3366,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3313,7 +3395,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3344,7 +3426,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3373,7 +3455,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3402,7 +3484,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3431,7 +3513,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3614,7 +3696,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -3891,7 +3973,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -4019,7 +4101,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -4083,7 +4165,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4662,6 +4744,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4673,13 +4762,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4690,8 +4772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4723,43 +4805,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -4804,58 +4886,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="89" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="81" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="81" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -4880,23 +4962,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="81"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4950,7 +5032,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5007,7 +5089,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5017,26 +5099,54 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="72"/>
+      <c r="B8" s="37">
+        <v>44363</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44364</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="39">
+        <v>868183033821518</v>
+      </c>
       <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H8" s="52"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="I8" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>91</v>
+      </c>
       <c r="N8" s="41"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>92</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5065,7 +5175,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5094,7 +5204,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5123,7 +5233,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5152,7 +5262,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5183,7 +5293,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5212,7 +5322,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5241,7 +5351,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5270,7 +5380,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5389,7 +5499,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -5794,7 +5904,7 @@
       </c>
       <c r="V33" s="10">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="14"/>
     </row>
@@ -5858,7 +5968,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -5922,7 +6032,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6501,6 +6611,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6512,13 +6629,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6562,43 +6672,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6643,58 +6753,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="89" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="81" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="81" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -6719,23 +6829,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="81"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6761,7 +6871,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6792,7 +6902,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6821,7 +6931,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6850,7 +6960,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6879,7 +6989,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -6908,7 +7018,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -6937,7 +7047,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -6968,7 +7078,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -6997,7 +7107,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7026,7 +7136,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7055,7 +7165,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8286,13 +8396,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8304,6 +8407,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_GiaThanh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_GiaThanh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="33" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="98">
   <si>
     <t>STT</t>
   </si>
@@ -316,6 +316,21 @@
   </si>
   <si>
     <t>SF, NCFW</t>
+  </si>
+  <si>
+    <t>Còn BH</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180405</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GPS</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15757</t>
   </si>
 </sst>
 </file>
@@ -1090,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1419,17 +1434,31 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="72"/>
+      <c r="B8" s="37">
+        <v>44369</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44371</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="72">
+        <v>868345035621762</v>
+      </c>
       <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H8" s="52"/>
       <c r="I8" s="50"/>
-      <c r="J8" s="40"/>
+      <c r="J8" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="K8" s="60"/>
-      <c r="L8" s="40"/>
+      <c r="L8" s="40" t="s">
+        <v>81</v>
+      </c>
       <c r="M8" s="40"/>
       <c r="N8" s="41"/>
       <c r="O8" s="40"/>
@@ -2931,7 +2960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
@@ -4772,8 +4801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView showZeros="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5156,12 +5185,22 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
+      <c r="B9" s="37">
+        <v>44369</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44371</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="39">
+        <v>868183033792784</v>
+      </c>
       <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="50"/>
       <c r="J9" s="40"/>
@@ -5185,23 +5224,51 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="B10" s="37">
+        <v>44369</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44371</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="39">
+        <v>867857039902932</v>
+      </c>
       <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="G10" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="I10" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="N10" s="41"/>
+      <c r="O10" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>92</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
       <c r="U10" s="86"/>
@@ -5214,23 +5281,45 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
+      <c r="B11" s="37">
+        <v>44369</v>
+      </c>
+      <c r="C11" s="37">
+        <v>44371</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="39">
+        <v>868183038607292</v>
+      </c>
       <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="G11" s="38" t="s">
+        <v>93</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="50"/>
-      <c r="J11" s="40"/>
+      <c r="J11" s="40" t="s">
+        <v>95</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="M11" s="40" t="s">
+        <v>96</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="O11" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
       <c r="U11" s="86"/>
@@ -5243,23 +5332,49 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="B12" s="37">
+        <v>44369</v>
+      </c>
+      <c r="C12" s="37">
+        <v>44371</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="39">
+        <v>867857039938449</v>
+      </c>
       <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="G12" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
+      <c r="I12" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>77</v>
+      </c>
       <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
+      <c r="M12" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="N12" s="41"/>
+      <c r="O12" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>36</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
       <c r="U12" s="85" t="s">
@@ -5499,7 +5614,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -5531,7 +5646,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -5840,7 +5955,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -5904,7 +6019,7 @@
       </c>
       <c r="V33" s="10">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W33" s="14"/>
     </row>
@@ -5936,7 +6051,7 @@
       </c>
       <c r="V34" s="10">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W34" s="14"/>
     </row>
@@ -5968,7 +6083,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -6032,7 +6147,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W37" s="14"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_GiaThanh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_GiaThanh.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang6\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang6\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="33" r:id="rId1"/>
@@ -760,9 +760,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -782,21 +797,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1105,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1138,43 +1138,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -1219,58 +1219,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="81"/>
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -1295,23 +1295,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="81"/>
       <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1467,7 +1467,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1525,7 +1525,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1554,7 +1554,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1583,7 +1583,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1614,7 +1614,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1643,7 +1643,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1701,7 +1701,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2932,13 +2932,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2950,6 +2943,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2960,7 +2960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
@@ -2993,43 +2993,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -3074,58 +3074,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="81"/>
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3150,23 +3150,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="81"/>
       <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3220,7 +3220,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3308,7 +3308,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3337,7 +3337,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3366,7 +3366,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3395,7 +3395,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3424,7 +3424,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3455,7 +3455,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3484,7 +3484,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3513,7 +3513,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3542,7 +3542,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4773,13 +4773,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4791,6 +4784,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4801,8 +4801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4834,43 +4834,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -4915,58 +4915,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="81"/>
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -4991,23 +4991,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="81"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5118,7 +5118,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5214,7 +5214,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5322,7 +5322,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5377,7 +5377,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5408,7 +5408,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5437,7 +5437,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5466,7 +5466,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5495,7 +5495,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6726,13 +6726,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6744,6 +6737,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6787,43 +6787,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6868,58 +6868,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="81"/>
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="81" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -6944,23 +6944,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="81"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6986,7 +6986,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7017,7 +7017,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7046,7 +7046,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7075,7 +7075,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7104,7 +7104,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7133,7 +7133,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7162,7 +7162,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7193,7 +7193,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7222,7 +7222,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7251,7 +7251,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7280,7 +7280,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8511,6 +8511,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8522,13 +8529,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_GiaThanh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_GiaThanh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="33" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="103">
   <si>
     <t>STT</t>
   </si>
@@ -331,6 +331,21 @@
   </si>
   <si>
     <t>125.212.203.114,15757</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200416</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15050</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Thiết bị mất nguồn</t>
+  </si>
+  <si>
+    <t>Hàn lại chân connector</t>
   </si>
 </sst>
 </file>
@@ -1105,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1361,7 +1376,9 @@
       <c r="R6" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="S6" s="4"/>
+      <c r="S6" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="T6" s="74"/>
       <c r="U6" s="85" t="s">
         <v>18</v>
@@ -1451,21 +1468,37 @@
         <v>64</v>
       </c>
       <c r="H8" s="52"/>
-      <c r="I8" s="50"/>
+      <c r="I8" s="50" t="s">
+        <v>99</v>
+      </c>
       <c r="J8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="60"/>
+      <c r="K8" s="60" t="s">
+        <v>98</v>
+      </c>
       <c r="L8" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="M8" s="40"/>
+      <c r="M8" s="40" t="s">
+        <v>84</v>
+      </c>
       <c r="N8" s="41"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="4"/>
+      <c r="O8" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="T8" s="74"/>
       <c r="U8" s="86"/>
       <c r="V8" s="4" t="s">
@@ -1884,7 +1917,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -2161,7 +2194,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -2289,7 +2322,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2353,7 +2386,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4801,8 +4834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5202,16 +5235,32 @@
         <v>64</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="40"/>
+      <c r="I9" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>101</v>
+      </c>
       <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="L9" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>102</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
       <c r="U9" s="86"/>
@@ -5646,7 +5695,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -5955,7 +6004,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -6147,7 +6196,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W37" s="14"/>
     </row>
